--- a/SwiggyLiveMenuData.xlsx
+++ b/SwiggyLiveMenuData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansig\eclipse-workspace\SwiggyProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E40CA63-53E1-4CB1-97F0-A2646CC920FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F89ED61-CBF9-4609-AB7C-1FB02AA57B8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LiveMenu" sheetId="1" r:id="rId1"/>
+    <sheet name="TestStatus" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="16">
   <si>
     <t>Veg Whopper</t>
   </si>
@@ -55,6 +56,18 @@
   </si>
   <si>
     <t>Menu3 Price</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Overall Test Status</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
   <si>
     <t>Peri Peri Fries</t>
@@ -132,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -140,6 +153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,7 +436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -470,10 +484,10 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -521,4 +535,72 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976333B-DDF1-4065-92C8-A41DCABC5A3F}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>